--- a/data/instance/20/schedule_12.xlsx
+++ b/data/instance/20/schedule_12.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.007638888888888889</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.04375</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,18 +462,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
+        <v>0.009722222222222222</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0.03541666666666667</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0.06111111111111111</v>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -490,18 +490,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.04027777777777778</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,14 +518,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.02847222222222222</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.02847222222222222</v>
+        <v>0.05347222222222222</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -546,18 +546,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.01319444444444444</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,18 +574,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.04583333333333333</v>
+        <v>0.04027777777777778</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F51</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>D31</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,18 +630,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.02986111111111111</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.05763888888888889</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,18 +714,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.009027777777777777</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.02986111111111111</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,14 +798,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.07083333333333333</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>E24</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.07430555555555556</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.04722222222222222</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.06805555555555555</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,14 +882,14 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.05277777777777778</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -910,14 +910,14 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.05416666666666667</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.08125</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -938,18 +938,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.05486111111111111</v>
+        <v>0.08263888888888889</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.07708333333333334</v>
+        <v>0.1069444444444444</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
